--- a/תוכן עניינים.xlsx
+++ b/תוכן עניינים.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="379">
   <si>
     <t>Number</t>
   </si>
@@ -1145,6 +1145,12 @@
   </si>
   <si>
     <t>~80 seconds</t>
+  </si>
+  <si>
+    <t>is_probable_prime; get_right_truncatable_Harshad_numbers</t>
+  </si>
+  <si>
+    <t>Harshad Numbers</t>
   </si>
 </sst>
 </file>
@@ -1546,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J267"/>
+  <dimension ref="A1:J268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G267" sqref="G267"/>
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4981,66 +4987,86 @@
         <v>356</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>387</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F249" s="11">
+        <v>696067597313468</v>
+      </c>
+      <c r="G249" s="5">
+        <v>42173</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>493</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D252" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F251" s="16" t="s">
+      <c r="F252" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="G251" s="5">
+      <c r="G252" s="5">
         <v>42069</v>
       </c>
-      <c r="H251" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
+      <c r="H252" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>500</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D258" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F257" s="11">
+      <c r="F258" s="11">
         <v>35407281</v>
       </c>
-      <c r="G257" s="5">
+      <c r="G258" s="5">
         <v>42069</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
+      <c r="H258" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
         <v>516</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D268" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="E268" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F267" s="11">
+      <c r="F268" s="11">
         <v>939087315</v>
       </c>
-      <c r="G267" s="5">
+      <c r="G268" s="5">
         <v>42171</v>
       </c>
-      <c r="H267" s="1" t="s">
+      <c r="H268" s="1" t="s">
         <v>376</v>
       </c>
     </row>

--- a/תוכן עניינים.xlsx
+++ b/תוכן עניינים.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="381">
   <si>
     <t>Number</t>
   </si>
@@ -847,9 +847,6 @@
     <t>137, 140</t>
   </si>
   <si>
-    <t>138, 140</t>
-  </si>
-  <si>
     <t>137, 138</t>
   </si>
   <si>
@@ -1151,6 +1148,15 @@
   </si>
   <si>
     <t>Harshad Numbers</t>
+  </si>
+  <si>
+    <t>Polynomials of Fibonacci numbers</t>
+  </si>
+  <si>
+    <t>mat_pow_mod; Fib_mod; F</t>
+  </si>
+  <si>
+    <t>138, 140; 435</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J268"/>
+  <dimension ref="A1:J271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1617,7 @@
         <v>41276</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1631,7 +1637,7 @@
         <v>41276</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1651,7 +1657,7 @@
         <v>41276</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1671,7 +1677,7 @@
         <v>41282</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1694,7 +1700,7 @@
         <v>41278</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1714,7 +1720,7 @@
         <v>41282</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1737,7 +1743,7 @@
         <v>41278</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1759,7 +1765,7 @@
         <v>41282</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1785,7 +1791,7 @@
         <v>41282</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1808,7 +1814,7 @@
         <v>41278</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1830,7 +1836,7 @@
         <v>41283</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1875,7 +1881,7 @@
         <v>41278</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1901,7 +1907,7 @@
         <v>41283</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1921,7 +1927,7 @@
         <v>41283</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1941,7 +1947,7 @@
         <v>41283</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1964,7 +1970,7 @@
         <v>41283</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1989,7 +1995,7 @@
         <v>41283</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2008,7 +2014,7 @@
         <v>41283</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2027,7 +2033,7 @@
         <v>41281</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2053,7 +2059,7 @@
         <v>41283</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2081,7 +2087,7 @@
         <v>41283</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2121,7 +2127,7 @@
         <v>41284</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2141,7 +2147,7 @@
         <v>41284</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2161,7 +2167,7 @@
         <v>41284</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2172,7 +2178,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F28" s="11">
         <v>-59231</v>
@@ -2181,7 +2187,7 @@
         <v>41284</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2201,7 +2207,7 @@
         <v>41284</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2224,7 @@
         <v>41283</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2229,7 +2235,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F31" s="11">
         <v>443839</v>
@@ -2238,7 +2244,7 @@
         <v>41284</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2367,7 +2373,7 @@
         <v>84</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G40" s="5">
         <v>41285</v>
@@ -2393,7 +2399,7 @@
         <v>41285</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2559,10 +2565,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="F52" s="11">
         <v>121313</v>
@@ -2571,7 +2577,7 @@
         <v>41903</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2593,7 +2599,7 @@
         <v>118</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F54" s="11">
         <v>4075</v>
@@ -2602,7 +2608,7 @@
         <v>41287</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2725,7 +2731,7 @@
         <v>139</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F65" s="11">
         <v>1322</v>
@@ -2734,7 +2740,7 @@
         <v>41311</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2978,7 +2984,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C81" s="3"/>
       <c r="F81" s="11">
@@ -2988,7 +2994,7 @@
         <v>41298</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3337,13 +3343,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="F104" s="11">
         <v>20313839404245</v>
@@ -3352,7 +3358,7 @@
         <v>41928</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3377,16 +3383,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" t="s">
         <v>310</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="F106" s="11">
         <v>73702</v>
@@ -3395,7 +3401,7 @@
         <v>41740</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3418,7 +3424,7 @@
         <v>41887</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3591,10 +3597,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="E119" s="3">
         <v>41</v>
@@ -3606,7 +3612,7 @@
         <v>42167</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -3628,7 +3634,7 @@
         <v>126</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E121" s="3">
         <v>123</v>
@@ -3662,10 +3668,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E124" s="3">
         <v>120</v>
@@ -3677,7 +3683,7 @@
         <v>41930</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3685,10 +3691,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="F125" s="11">
         <v>21417</v>
@@ -3697,7 +3703,7 @@
         <v>41903</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -3705,10 +3711,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F126" s="11">
         <v>2906969179</v>
@@ -3717,7 +3723,7 @@
         <v>41903</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -3749,7 +3755,7 @@
         <v>41799</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -3757,13 +3763,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>220</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F131" s="11">
         <v>149253</v>
@@ -3772,7 +3778,7 @@
         <v>42166</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -3817,13 +3823,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="E134" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="F134" s="11">
         <v>453647705</v>
@@ -3832,7 +3838,7 @@
         <v>42166</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -3857,7 +3863,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E136" s="3">
         <v>136</v>
@@ -3869,7 +3875,7 @@
         <v>41906</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -3877,7 +3883,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E137" s="3">
         <v>135</v>
@@ -3889,7 +3895,7 @@
         <v>41906</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -3903,7 +3909,7 @@
         <v>270</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>277</v>
+        <v>380</v>
       </c>
       <c r="F138" s="11">
         <v>1120149658760</v>
@@ -3912,7 +3918,7 @@
         <v>41901</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -3935,7 +3941,7 @@
         <v>41901</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -3943,7 +3949,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E140" s="3">
         <v>39</v>
@@ -3955,7 +3961,7 @@
         <v>41901</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -3969,7 +3975,7 @@
         <v>271</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F141" s="13">
         <v>5673835352990</v>
@@ -3978,7 +3984,7 @@
         <v>41901</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -3994,7 +4000,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E145" s="3">
         <v>202</v>
@@ -4006,7 +4012,7 @@
         <v>42163</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4054,10 +4060,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="E150" s="3">
         <v>150</v>
@@ -4069,7 +4075,7 @@
         <v>41910</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4077,10 +4083,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="E151" s="3">
         <v>149</v>
@@ -4092,7 +4098,7 @@
         <v>41910</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4100,10 +4106,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="F152" s="14">
         <v>0.46439900000000001</v>
@@ -4112,7 +4118,7 @@
         <v>41910</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4143,13 +4149,13 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="E157" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="F157" s="11">
         <v>53490</v>
@@ -4158,7 +4164,7 @@
         <v>42001</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -4166,10 +4172,10 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="F158" s="11">
         <v>409511334375</v>
@@ -4178,7 +4184,7 @@
         <v>41915</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -4186,10 +4192,10 @@
         <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="E159" s="3">
         <v>315</v>
@@ -4201,7 +4207,7 @@
         <v>41913</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -4209,10 +4215,10 @@
         <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="F160" s="11">
         <v>16576</v>
@@ -4221,7 +4227,7 @@
         <v>41920</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -4238,7 +4244,7 @@
         <v>41792</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -4289,7 +4295,7 @@
         <v>173</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E168" s="3">
         <v>174</v>
@@ -4301,7 +4307,7 @@
         <v>42130</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -4309,10 +4315,10 @@
         <v>174</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="E169" s="3">
         <v>173</v>
@@ -4324,7 +4330,7 @@
         <v>42130</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -4344,7 +4350,7 @@
         <v>41793</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -4370,7 +4376,7 @@
         <v>41891</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -4413,7 +4419,7 @@
         <v>41890</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -4433,7 +4439,7 @@
         <v>41889</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -4476,7 +4482,7 @@
         <v>41891</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -4496,7 +4502,7 @@
         <v>41894</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -4504,10 +4510,10 @@
         <v>192</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="E183" s="3">
         <v>64</v>
@@ -4519,7 +4525,7 @@
         <v>41904</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -4527,10 +4533,10 @@
         <v>197</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="F186" s="15">
         <v>1.710637717</v>
@@ -4539,7 +4545,7 @@
         <v>42041</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -4606,7 +4612,7 @@
         <v>207</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>265</v>
@@ -4618,7 +4624,7 @@
         <v>42130</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -4649,10 +4655,10 @@
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="F199" s="11">
         <v>806844323190414</v>
@@ -4661,7 +4667,7 @@
         <v>42041</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -4669,10 +4675,10 @@
         <v>216</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F200" s="11">
         <v>5437849</v>
@@ -4681,7 +4687,7 @@
         <v>42041</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -4692,7 +4698,7 @@
         <v>218</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F202" s="11">
         <v>0</v>
@@ -4701,7 +4707,7 @@
         <v>42041</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -4712,10 +4718,10 @@
         <v>225</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="F205" s="11">
         <v>2009</v>
@@ -4724,7 +4730,7 @@
         <v>41926</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -4769,7 +4775,7 @@
         <v>41798</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -4780,16 +4786,16 @@
         <v>268</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F216" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G216" s="5">
         <v>41897</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -4833,7 +4839,7 @@
         <v>308</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F225" s="11">
         <v>1539669807660920</v>
@@ -4842,7 +4848,7 @@
         <v>41941</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -4856,10 +4862,10 @@
         <v>315</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D228" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="E228" s="3">
         <v>159</v>
@@ -4871,7 +4877,7 @@
         <v>42161</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -4885,16 +4891,16 @@
         <v>323</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F231" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="F231" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="G231" s="5">
         <v>42069</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -4909,19 +4915,19 @@
         <v>329</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G235" s="5">
         <v>42069</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -4929,10 +4935,10 @@
         <v>345</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D238" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="F238" s="11">
         <v>13938</v>
@@ -4941,7 +4947,7 @@
         <v>42010</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -4952,19 +4958,19 @@
         <v>357</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D241" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="F241" s="11">
         <v>1739023853137</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -4972,10 +4978,10 @@
         <v>381</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="F246" s="11">
         <v>139602943319822</v>
@@ -4984,7 +4990,7 @@
         <v>42100</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -4992,10 +4998,10 @@
         <v>387</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F249" s="11">
         <v>696067597313468</v>
@@ -5004,70 +5010,93 @@
         <v>42173</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
+        <v>435</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E252" s="3">
+        <v>137</v>
+      </c>
+      <c r="F252" s="11">
+        <v>252541322550</v>
+      </c>
+      <c r="G252" s="5">
+        <v>42178</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>493</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B255" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F255" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="G255" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>500</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D252" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F252" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="G252" s="5">
+      <c r="D261" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F261" s="11">
+        <v>35407281</v>
+      </c>
+      <c r="G261" s="5">
         <v>42069</v>
       </c>
-      <c r="H252" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>500</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F258" s="11">
-        <v>35407281</v>
-      </c>
-      <c r="G258" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
+      <c r="H261" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>516</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B271" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D271" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="E271" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F271" s="11">
+        <v>939087315</v>
+      </c>
+      <c r="G271" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H271" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F268" s="11">
-        <v>939087315</v>
-      </c>
-      <c r="G268" s="5">
-        <v>42171</v>
-      </c>
-      <c r="H268" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/תוכן עניינים.xlsx
+++ b/תוכן עניינים.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="383">
   <si>
     <t>Number</t>
   </si>
@@ -1157,6 +1157,12 @@
   </si>
   <si>
     <t>138, 140; 435</t>
+  </si>
+  <si>
+    <t>Binary Circles</t>
+  </si>
+  <si>
+    <t>sum_binary_circles</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J271"/>
+  <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4778,106 +4784,103 @@
         <v>323</v>
       </c>
     </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G214" s="5"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G215" s="5"/>
+    </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
+        <v>265</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F216" s="11">
+        <v>209110240768</v>
+      </c>
+      <c r="G216" s="5">
+        <v>42190</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>271</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D219" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F216" s="16" t="s">
+      <c r="F219" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="G216" s="5">
+      <c r="G219" s="5">
         <v>41897</v>
       </c>
-      <c r="H216" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+      <c r="H219" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>301</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D221" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G218" s="5">
+      <c r="G221" s="5">
         <v>41746</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>303</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D223" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G220" s="5">
+      <c r="G223" s="5">
         <v>41784</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>305</v>
-      </c>
-      <c r="E222" s="3">
-        <v>40</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>308</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F225" s="11">
-        <v>1539669807660920</v>
-      </c>
-      <c r="G225" s="5">
-        <v>41941</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G226" s="5"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G227" s="5"/>
+        <v>305</v>
+      </c>
+      <c r="E225" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E228" s="3">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="F228" s="11">
-        <v>13625242</v>
+        <v>1539669807660920</v>
       </c>
       <c r="G228" s="5">
-        <v>42161</v>
+        <v>41941</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -4888,149 +4891,155 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F231" s="16" t="s">
-        <v>343</v>
+        <v>357</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E231" s="3">
+        <v>159</v>
+      </c>
+      <c r="F231" s="11">
+        <v>13625242</v>
       </c>
       <c r="G231" s="5">
-        <v>42069</v>
+        <v>42161</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F232" s="16"/>
       <c r="G232" s="5"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G233" s="5"/>
     </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>323</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F234" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="G234" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>329</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="G235" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="F235" s="16"/>
+      <c r="G235" s="5"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G236" s="5"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F238" s="11">
-        <v>13938</v>
+        <v>326</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="G238" s="5">
-        <v>42010</v>
+        <v>42069</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G239" s="5"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
+        <v>345</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F241" s="11">
+        <v>13938</v>
+      </c>
+      <c r="G241" s="5">
+        <v>42010</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G242" s="5"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>357</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F241" s="11">
+      <c r="F244" s="11">
         <v>1739023853137</v>
       </c>
-      <c r="G241" s="3" t="s">
+      <c r="G244" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H241" s="1" t="s">
+      <c r="H244" s="1" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>381</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F246" s="11">
-        <v>139602943319822</v>
-      </c>
-      <c r="G246" s="5">
-        <v>42100</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="F249" s="11">
-        <v>696067597313468</v>
+        <v>139602943319822</v>
       </c>
       <c r="G249" s="5">
-        <v>42173</v>
+        <v>42100</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E252" s="3">
-        <v>137</v>
+        <v>376</v>
       </c>
       <c r="F252" s="11">
-        <v>252541322550</v>
+        <v>696067597313468</v>
       </c>
       <c r="G252" s="5">
-        <v>42178</v>
+        <v>42173</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>323</v>
@@ -5038,64 +5047,87 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
+        <v>435</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E255" s="3">
+        <v>137</v>
+      </c>
+      <c r="F255" s="11">
+        <v>252541322550</v>
+      </c>
+      <c r="G255" s="5">
+        <v>42178</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>493</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D258" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F255" s="16" t="s">
+      <c r="F258" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="G255" s="5">
+      <c r="G258" s="5">
         <v>42069</v>
       </c>
-      <c r="H255" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
+      <c r="H258" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>500</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D264" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F261" s="11">
+      <c r="F264" s="11">
         <v>35407281</v>
       </c>
-      <c r="G261" s="5">
+      <c r="G264" s="5">
         <v>42069</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
+      <c r="H264" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>516</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D274" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E271" s="3" t="s">
+      <c r="E274" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F271" s="11">
+      <c r="F274" s="11">
         <v>939087315</v>
       </c>
-      <c r="G271" s="5">
+      <c r="G274" s="5">
         <v>42171</v>
       </c>
-      <c r="H271" s="1" t="s">
+      <c r="H274" s="1" t="s">
         <v>375</v>
       </c>
     </row>
